--- a/biology/Médecine/Xanthome/Xanthome.xlsx
+++ b/biology/Médecine/Xanthome/Xanthome.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un xanthome (du grec xanthos, jaune) est une tumeur bénigne cutanée plane ou nodulaire, externe ou sous-cutanée, de couleur jaune, jaunâtre ou jaune-orangé, formée par un infiltrat dermique de cellules chargées de graisses (cholestérol, etc.). Ce sont des amas de tissu conjonctif (tissu de soutien) et d'histiocytes (type de globule blanc proche des macrophages, et ayant la capacité de digérer des particules étrangères). Les xanthomes ne mesurent souvent que quelques millimètres et parfois un centimètre ou plus (sur les fesses, les coudes, les genoux…). Exceptionnellement ils se présentent comme des excroissances épaisses d'un centimètre voire plus.
 Ils ont pour cause une anomalie lipidique, d'origine génétique ou secondaire, consécutive à une dyslipémie ou une hypercholestérolémie sévère que le médecin recherchera.
@@ -512,7 +524,9 @@
           <t>Clinique (Macroscopie)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Formes :
 placard : xanthome plan :  de couleur jaune-orangé, ferme, élastique, de tailles variables.
@@ -551,7 +565,9 @@
           <t>Histologie (Microscopie)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Infiltrat dermique d'histiocytes géants parfois polynucléés (cellules de Touton) dont le cytoplasme spumeux est chargé de lipides : cholestérol essentiellement</t>
         </is>
@@ -581,7 +597,9 @@
           <t>Aspects cliniques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Suivant l'aspect clinique des xanthomes et leur localisation, il est possible d'orienter les recherches de pathologies causales ou associées : 
 xanthélasma des paupières : normolipémiques,
